--- a/medicine/Mort/Cimetière_d'Alicante/Cimetière_d'Alicante.xlsx
+++ b/medicine/Mort/Cimetière_d'Alicante/Cimetière_d'Alicante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alicante</t>
+          <t>Cimetière_d'Alicante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Alicante, également appelé Nuestra Señora del Remedio, est le cimetière municipal de la ville d'Alicante.
 Il est un haut lieu de mémoire de la guerre d'Espagne.
-Sa surface totale est de 223 674 m2[1].
+Sa surface totale est de 223 674 m2.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alicante</t>
+          <t>Cimetière_d'Alicante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pedro Herrero Rubio (1904-1978), médecin[2];
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pedro Herrero Rubio (1904-1978), médecin;
 Miguel Hernández (1910-1942), poète;
-Josefina Manresa (1916-1987), femme de lettres[3];
-Manzanares (1953-2014), torero[4].</t>
+Josefina Manresa (1916-1987), femme de lettres;
+Manzanares (1953-2014), torero.</t>
         </is>
       </c>
     </row>
